--- a/static/exel_files/5. producer.xlsx
+++ b/static/exel_files/5. producer.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_8B68A84FC000074473C91EA361059D29E94BD677" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E0CBE0D9-D3EA-44FF-8C4C-92A8B62CDF84}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\DjangoRepos\Elkomerc\static\exel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BC0D03-9B78-4462-99F1-08CD7D5A5DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,9 +51,6 @@
     <t>INTERIO</t>
   </si>
   <si>
-    <t>KABLOVI</t>
-  </si>
-  <si>
     <t>METALKA MAJUR</t>
   </si>
   <si>
@@ -187,13 +187,16 @@
   </si>
   <si>
     <t>TEM</t>
+  </si>
+  <si>
+    <t>Nema</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +216,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -236,10 +244,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -547,16 +556,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,389 +579,391 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -962,5 +973,6 @@
     <hyperlink ref="C13" r:id="rId3" xr:uid="{04E330F5-7135-40BE-8A01-B7593CDAB3D0}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/static/exel_files/5. producer.xlsx
+++ b/static/exel_files/5. producer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\DjangoRepos\Elkomerc\static\exel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BC0D03-9B78-4462-99F1-08CD7D5A5DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A32ADBB-5FE9-4292-BDB5-9416B71CC65F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
     <t>TEM</t>
   </si>
   <si>
-    <t>Nema</t>
+    <t>profile_image</t>
   </si>
 </sst>
 </file>
@@ -552,20 +552,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,20 +578,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -597,117 +602,117 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -715,7 +720,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -723,7 +728,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -731,7 +736,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -739,7 +744,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -747,7 +752,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -755,7 +760,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -763,7 +768,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -771,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -779,7 +784,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -787,7 +792,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -795,7 +800,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -803,7 +808,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -811,7 +816,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -819,7 +824,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -827,7 +832,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -835,7 +840,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -843,7 +848,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -851,7 +856,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -859,7 +864,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -867,7 +872,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -875,7 +880,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -883,7 +888,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -891,7 +896,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -899,7 +904,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -907,7 +912,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -915,7 +920,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -923,7 +928,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -931,7 +936,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -939,7 +944,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -947,7 +952,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -955,22 +960,14 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{27F3F95B-B83A-4B1F-AAE4-462429CA7313}"/>
-    <hyperlink ref="C12" r:id="rId2" xr:uid="{3D6AE607-DB22-41F2-9609-8CA15ED9E8C5}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{04E330F5-7135-40BE-8A01-B7593CDAB3D0}"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{27F3F95B-B83A-4B1F-AAE4-462429CA7313}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{3D6AE607-DB22-41F2-9609-8CA15ED9E8C5}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{04E330F5-7135-40BE-8A01-B7593CDAB3D0}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
